--- a/excel/职称.xlsx
+++ b/excel/职称.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,7 +329,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -364,7 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,20 +538,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -597,7 +595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -608,7 +606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -619,7 +617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -630,7 +628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -641,7 +639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -652,7 +650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -663,7 +661,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -674,7 +672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -685,7 +683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -696,7 +694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -707,7 +705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -718,7 +716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -729,7 +727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -740,7 +738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -751,7 +749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -762,7 +760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -773,7 +771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -784,7 +782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -795,7 +793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -806,7 +804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -817,7 +815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -828,7 +826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -839,7 +837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -850,7 +848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -861,7 +859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -872,7 +870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -883,7 +881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -894,7 +892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -905,7 +903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -916,7 +914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -927,7 +925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -938,7 +936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -949,7 +947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -960,7 +958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -971,7 +969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -982,7 +980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -993,7 +991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1059,7 +1057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1077,36 +1075,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1118,51 +1116,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>59</v>
       </c>
